--- a/Matlab/Example/Salida3.xlsx
+++ b/Matlab/Example/Salida3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codigo\UPIICSA-Code\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codigo\UPIICSA-Code\Matlab\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
         <v>-100</v>
       </c>
       <c r="B2">
-        <v>96999999.999713317</v>
+        <v>-511958590.47624218</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +389,7 @@
         <v>-99</v>
       </c>
       <c r="B3">
-        <v>93148703.999723941</v>
+        <v>-497305831.30338359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +397,7 @@
         <v>-98</v>
       </c>
       <c r="B4">
-        <v>89413239.999734268</v>
+        <v>-482935328.24004889</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
         <v>-97</v>
       </c>
       <c r="B5">
-        <v>85791261.999744311</v>
+        <v>-468844336.4929046</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +413,7 @@
         <v>-96</v>
       </c>
       <c r="B6">
-        <v>82280447.999754056</v>
+        <v>-455030111.26861751</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>-95</v>
       </c>
       <c r="B7">
-        <v>78878499.999763533</v>
+        <v>-441489907.77385432</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>-94</v>
       </c>
       <c r="B8">
-        <v>75583143.999772727</v>
+        <v>-428220981.21528155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>-93</v>
       </c>
       <c r="B9">
-        <v>72392129.999781653</v>
+        <v>-415220586.79956597</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>-92</v>
       </c>
       <c r="B10">
-        <v>69303231.999790311</v>
+        <v>-402485979.73337424</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>-91</v>
       </c>
       <c r="B11">
-        <v>66314247.999798708</v>
+        <v>-390014415.223373</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>-90</v>
       </c>
       <c r="B12">
-        <v>63422999.999806851</v>
+        <v>-377803148.47622895</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>-89</v>
       </c>
       <c r="B13">
-        <v>60627333.999814749</v>
+        <v>-365849434.69860876</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>-88</v>
       </c>
       <c r="B14">
-        <v>57925119.999822401</v>
+        <v>-354150529.097179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>-87</v>
       </c>
       <c r="B15">
-        <v>55314251.999829806</v>
+        <v>-342703686.87860644</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>-86</v>
       </c>
       <c r="B16">
-        <v>52792647.999836989</v>
+        <v>-331506163.24955773</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>-85</v>
       </c>
       <c r="B17">
-        <v>50358249.999843933</v>
+        <v>-320555213.41669947</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>-84</v>
       </c>
       <c r="B18">
-        <v>48009023.999850653</v>
+        <v>-309848092.58669841</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>-83</v>
       </c>
       <c r="B19">
-        <v>45742959.999857157</v>
+        <v>-299382055.96622115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>-82</v>
       </c>
       <c r="B20">
-        <v>43558071.999863446</v>
+        <v>-289154358.76193446</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>-81</v>
       </c>
       <c r="B21">
-        <v>41452397.999869525</v>
+        <v>-279162256.18050486</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>-80</v>
       </c>
       <c r="B22">
-        <v>39423999.999875404</v>
+        <v>-269403003.42859918</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>-79</v>
       </c>
       <c r="B23">
-        <v>37470963.999881074</v>
+        <v>-259873855.71288392</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>-78</v>
       </c>
       <c r="B24">
-        <v>35591399.99988655</v>
+        <v>-250572068.24002585</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>-77</v>
       </c>
       <c r="B25">
-        <v>33783441.99989184</v>
+        <v>-241494896.21669161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>-76</v>
       </c>
       <c r="B26">
-        <v>32045247.99989694</v>
+        <v>-232639594.84954786</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>-75</v>
       </c>
       <c r="B27">
-        <v>30374999.999901854</v>
+        <v>-224003419.34526128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>-74</v>
       </c>
       <c r="B28">
-        <v>28770903.999906596</v>
+        <v>-215583624.91049853</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>-73</v>
       </c>
       <c r="B29">
-        <v>27231189.999911159</v>
+        <v>-207377466.75192627</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>-72</v>
       </c>
       <c r="B30">
-        <v>25754111.999915555</v>
+        <v>-199382200.07621118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>-71</v>
       </c>
       <c r="B31">
-        <v>24337947.999919787</v>
+        <v>-191595080.09001994</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>-70</v>
       </c>
       <c r="B32">
-        <v>22980999.999923859</v>
+        <v>-184013362.00001919</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>-69</v>
       </c>
       <c r="B33">
-        <v>21681593.99992777</v>
+        <v>-176634301.01287559</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>-68</v>
       </c>
       <c r="B34">
-        <v>20438079.999931533</v>
+        <v>-169455152.3352558</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>-67</v>
       </c>
       <c r="B35">
-        <v>19248831.999935143</v>
+        <v>-162473171.17382655</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>-66</v>
       </c>
       <c r="B36">
-        <v>18112247.999938611</v>
+        <v>-155685612.73525441</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>-65</v>
       </c>
       <c r="B37">
-        <v>17026749.999941938</v>
+        <v>-149089732.22620612</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>-64</v>
       </c>
       <c r="B38">
-        <v>15990783.999945128</v>
+        <v>-142682784.85334834</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>-63</v>
       </c>
       <c r="B39">
-        <v>15002819.999948185</v>
+        <v>-136462025.82334772</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>-62</v>
       </c>
       <c r="B40">
-        <v>14061351.999951111</v>
+        <v>-130424710.34287091</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>-61</v>
       </c>
       <c r="B41">
-        <v>13164897.999953913</v>
+        <v>-124568093.6185846</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>-60</v>
       </c>
       <c r="B42">
-        <v>12311999.999956593</v>
+        <v>-118889430.85715546</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>-59</v>
       </c>
       <c r="B43">
-        <v>11501223.999959154</v>
+        <v>-113385977.26525013</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>-58</v>
       </c>
       <c r="B44">
-        <v>10731159.9999616</v>
+        <v>-108054988.0495353</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>-57</v>
       </c>
       <c r="B45">
-        <v>10000421.999963934</v>
+        <v>-102893718.41667764</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>-56</v>
       </c>
       <c r="B46">
-        <v>9307647.9999661613</v>
+        <v>-97899423.573343799</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>-55</v>
       </c>
       <c r="B47">
-        <v>8651499.9999682829</v>
+        <v>-93069358.726200446</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>-54</v>
       </c>
       <c r="B48">
-        <v>8030663.9999703038</v>
+        <v>-88400779.081914246</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>-53</v>
       </c>
       <c r="B49">
-        <v>7443849.9999722261</v>
+        <v>-83890939.847151875</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
         <v>-52</v>
       </c>
       <c r="B50">
-        <v>6889791.9999740543</v>
+        <v>-79537096.228579998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>-51</v>
       </c>
       <c r="B51">
-        <v>6367247.9999757912</v>
+        <v>-75336503.432865292</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>-50</v>
       </c>
       <c r="B52">
-        <v>5874999.9999774387</v>
+        <v>-71286416.66667439</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>-49</v>
       </c>
       <c r="B53">
-        <v>5411853.9999790015</v>
+        <v>-67384091.136673987</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>-48</v>
       </c>
       <c r="B54">
-        <v>4976639.9999804813</v>
+        <v>-63626782.049530745</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>-47</v>
       </c>
       <c r="B55">
-        <v>4568211.9999818811</v>
+        <v>-60011744.611911319</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>-46</v>
       </c>
       <c r="B56">
-        <v>4185447.9999832055</v>
+        <v>-56536234.030482389</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>-45</v>
       </c>
       <c r="B57">
-        <v>3827249.9999844553</v>
+        <v>-53197505.51191061</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>-44</v>
       </c>
       <c r="B58">
-        <v>3492543.9999856343</v>
+        <v>-49992814.26286266</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>-43</v>
       </c>
       <c r="B59">
-        <v>3180279.999986745</v>
+        <v>-46919415.490005195</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>-42</v>
       </c>
       <c r="B60">
-        <v>2889431.9999877904</v>
+        <v>-43974564.400004886</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>-41</v>
       </c>
       <c r="B61">
-        <v>2618997.9999887724</v>
+        <v>-41155516.199528396</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>-40</v>
       </c>
       <c r="B62">
-        <v>2367999.9999896945</v>
+        <v>-38459526.095242396</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>-39</v>
       </c>
       <c r="B63">
-        <v>2135483.9999905587</v>
+        <v>-35883849.293813556</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>-38</v>
       </c>
       <c r="B64">
-        <v>1920519.9999913673</v>
+        <v>-33425741.001908533</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>-37</v>
       </c>
       <c r="B65">
-        <v>1722201.9999921231</v>
+        <v>-31082456.426193997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>-36</v>
       </c>
       <c r="B66">
-        <v>1539647.9999928281</v>
+        <v>-28851250.773336615</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>-35</v>
       </c>
       <c r="B67">
-        <v>1371999.9999934849</v>
+        <v>-26729379.250003055</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>-34</v>
       </c>
       <c r="B68">
-        <v>1218423.9999940956</v>
+        <v>-24714097.062859982</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>-33</v>
       </c>
       <c r="B69">
-        <v>1078109.9999946626</v>
+        <v>-22802659.418574061</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>-32</v>
       </c>
       <c r="B70">
-        <v>950271.99999518774</v>
+        <v>-20992321.523811962</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>-31</v>
       </c>
       <c r="B71">
-        <v>834147.99999567331</v>
+        <v>-19280338.585240349</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
         <v>-30</v>
       </c>
       <c r="B72">
-        <v>728999.99999612127</v>
+        <v>-17663965.809525885</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>-29</v>
       </c>
       <c r="B73">
-        <v>634113.99999653373</v>
+        <v>-16140458.403335242</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>-28</v>
       </c>
       <c r="B74">
-        <v>548799.99999691243</v>
+        <v>-14707071.573335085</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>-27</v>
       </c>
       <c r="B75">
-        <v>472391.99999725935</v>
+        <v>-13361060.526192078</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>-26</v>
       </c>
       <c r="B76">
-        <v>404247.99999757635</v>
+        <v>-12099680.46857289</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>-25</v>
       </c>
       <c r="B77">
-        <v>343749.99999786512</v>
+        <v>-10920186.607144188</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>290303.9999981274</v>
+        <v>-9819834.1485726349</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>-23</v>
       </c>
       <c r="B79">
-        <v>243339.99999836486</v>
+        <v>-8795878.2995249014</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>202311.99999857909</v>
+        <v>-7845574.2666676491</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>166697.9999987717</v>
+        <v>-6966177.2566675488</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>-20</v>
       </c>
       <c r="B82">
-        <v>135999.99999894414</v>
+        <v>-6154942.4761912646</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>-19</v>
       </c>
       <c r="B83">
-        <v>109743.9999990979</v>
+        <v>-5409125.1319054626</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>-18</v>
       </c>
       <c r="B84">
-        <v>87479.999999234336</v>
+        <v>-4725980.4304768108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>68781.999999354797</v>
+        <v>-4102763.5785719752</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>-16</v>
       </c>
       <c r="B86">
-        <v>53247.999999460575</v>
+        <v>-3536729.7828576216</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>-15</v>
       </c>
       <c r="B87">
-        <v>40499.999999552907</v>
+        <v>-3025134.2500004163</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>-14</v>
       </c>
       <c r="B88">
-        <v>30183.999999632968</v>
+        <v>-2565232.1866670265</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>-13</v>
       </c>
       <c r="B89">
-        <v>21969.999999701886</v>
+        <v>-2154278.7995241177</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>-12</v>
       </c>
       <c r="B90">
-        <v>15551.99999976073</v>
+        <v>-1789529.2952383573</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>-11</v>
       </c>
       <c r="B91">
-        <v>10647.999999810525</v>
+        <v>-1468238.880476411</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>-10</v>
       </c>
       <c r="B92">
-        <v>6999.9999998522317</v>
+        <v>-1187662.7619049456</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>-9</v>
       </c>
       <c r="B93">
-        <v>4373.9999998867643</v>
+        <v>-945056.14619062701</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>-8</v>
       </c>
       <c r="B94">
-        <v>2559.9999999149809</v>
+        <v>-737674.24000012223</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>-7</v>
       </c>
       <c r="B95">
-        <v>1371.9999999376851</v>
+        <v>-562772.25000009721</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>-6</v>
       </c>
       <c r="B96">
-        <v>647.99999995562871</v>
+        <v>-417605.38285721868</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>-5</v>
       </c>
       <c r="B97">
-        <v>249.99999996950879</v>
+        <v>-299428.84523815289</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>-4</v>
       </c>
       <c r="B98">
-        <v>63.999999979969083</v>
+        <v>-205497.84380956629</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>-3</v>
       </c>
       <c r="B99">
-        <v>-1.2400234326214016E-8</v>
+        <v>-133067.58523812529</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>-2</v>
       </c>
       <c r="B100">
-        <v>-8.000000007062626</v>
+        <v>-79393.276190496297</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>-1</v>
       </c>
       <c r="B101">
-        <v>-2.0000000035351619</v>
+        <v>-41730.123333345713</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>-1.3885254846349629E-9</v>
+        <v>-17333.333333339964</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>3.9999999997529909</v>
+        <v>-3458.1128571454547</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B104">
-        <v>40.000000000211486</v>
+        <v>2640.3314285714036</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>162.00000000025545</v>
+        <v>3706.7928571442003</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>448.00000000009976</v>
+        <v>2486.0647619065239</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>999.99999999990564</v>
+        <v>1722.9404761919643</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="B108">
-        <v>1943.9999999997808</v>
+        <v>4162.2133333341098</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>3429.9999999997794</v>
+        <v>12548.676666666552</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>5631.9999999999018</v>
+        <v>29627.123809522876</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B111">
-        <v>8748.0000000000946</v>
+        <v>58142.348095236674</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>13000.000000000251</v>
+        <v>100839.14285714153</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B113">
-        <v>18634.000000000211</v>
+        <v>160462.30142857105</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>25919.99999999976</v>
+        <v>239756.6171428588</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="B115">
-        <v>35151.999999998632</v>
+        <v>341466.88333333837</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>46647.9999999965</v>
+        <v>468337.89333334338</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="B117">
-        <v>60749.999999993001</v>
+        <v>623114.44047620741</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="B118">
-        <v>77823.999999987689</v>
+        <v>808541.31809526403</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B119">
-        <v>98259.999999980108</v>
+        <v>1027363.3195238468</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="B120">
-        <v>122471.99999996969</v>
+        <v>1282325.2380952893</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="B121">
-        <v>150897.99999995588</v>
+        <v>1576171.8671429253</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="B122">
-        <v>183999.99999993801</v>
+        <v>1911648.0000000882</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="B123">
-        <v>222263.99999991537</v>
+        <v>2291498.4300001115</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>266199.99999988725</v>
+        <v>2718467.9504763293</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>23</v>
       </c>
       <c r="B125">
-        <v>316341.99999985285</v>
+        <v>3195301.3547620745</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>373247.99999981123</v>
+        <v>3724743.4361906811</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="B127">
-        <v>437499.99999976158</v>
+        <v>4309538.9880954828</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="B128">
-        <v>509703.99999970291</v>
+        <v>4952432.8038098123</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="B129">
-        <v>590489.99999963411</v>
+        <v>5656169.6766670048</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="B130">
-        <v>680511.99999955425</v>
+        <v>6423494.4000003925</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>780447.99999946216</v>
+        <v>7257151.7671433091</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>890999.99999935657</v>
+        <v>8159886.5714290896</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="B133">
-        <v>1012893.9999992364</v>
+        <v>9134443.6061910652</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>1146879.9999991001</v>
+        <v>10183567.664762571</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="B135">
-        <v>1293731.9999989467</v>
+        <v>11310003.540476942</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>1454247.9999987746</v>
+        <v>12516496.026667509</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="B137">
-        <v>1629249.9999985823</v>
+        <v>13805789.916667607</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="B138">
-        <v>1819583.9999983686</v>
+        <v>15180630.00381057</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="B139">
-        <v>2026119.9999981313</v>
+        <v>16643761.081429729</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="B140">
-        <v>2249751.9999978696</v>
+        <v>18197927.94285842</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>39</v>
       </c>
       <c r="B141">
-        <v>2491397.9999975814</v>
+        <v>19845875.381429978</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>2751999.9999972647</v>
+        <v>21590348.190477733</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="B143">
-        <v>3032523.9999969183</v>
+        <v>23434091.163335022</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>42</v>
       </c>
       <c r="B144">
-        <v>3333959.9999965401</v>
+        <v>25379849.093335178</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>43</v>
       </c>
       <c r="B145">
-        <v>3657321.999996128</v>
+        <v>27430366.77381153</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>44</v>
       </c>
       <c r="B146">
-        <v>4003647.999995681</v>
+        <v>29588388.998097416</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>45</v>
       </c>
       <c r="B147">
-        <v>4373999.9999951962</v>
+        <v>31856660.559526168</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>46</v>
       </c>
       <c r="B148">
-        <v>4769463.999994671</v>
+        <v>34237926.251431122</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="B149">
-        <v>5191149.9999941057</v>
+        <v>36734930.867145613</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>48</v>
       </c>
       <c r="B150">
-        <v>5640191.9999934947</v>
+        <v>39350419.200002968</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>49</v>
       </c>
       <c r="B151">
-        <v>6117747.9999928391</v>
+        <v>42087136.043336518</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>50</v>
       </c>
       <c r="B152">
-        <v>6624999.999992135</v>
+        <v>44947826.190479614</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="B153">
-        <v>7163153.9999913797</v>
+        <v>47935234.43476557</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>52</v>
       </c>
       <c r="B154">
-        <v>7733439.9999905722</v>
+        <v>51052105.56952773</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>53</v>
       </c>
       <c r="B155">
-        <v>8337111.9999897089</v>
+        <v>54301184.388099425</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>54</v>
       </c>
       <c r="B156">
-        <v>8975447.9999887887</v>
+        <v>57685215.683813989</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="B157">
-        <v>9649749.9999878071</v>
+        <v>61206944.250004761</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>56</v>
       </c>
       <c r="B158">
-        <v>10361343.999986762</v>
+        <v>64869114.880005062</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="B159">
-        <v>11111579.999985652</v>
+        <v>68674472.367148235</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="B160">
-        <v>11901831.999984475</v>
+        <v>72625761.504767612</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>59</v>
       </c>
       <c r="B161">
-        <v>12733497.999983227</v>
+        <v>76725727.086196527</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B162">
-        <v>13607999.999981903</v>
+        <v>80977113.904768318</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>61</v>
       </c>
       <c r="B163">
-        <v>14526783.999980504</v>
+        <v>85382666.753816292</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>62</v>
       </c>
       <c r="B164">
-        <v>15491319.999979025</v>
+        <v>89945130.42667383</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>63</v>
       </c>
       <c r="B165">
-        <v>16503101.999977464</v>
+        <v>94667249.716674224</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>64</v>
       </c>
       <c r="B166">
-        <v>17563647.999975819</v>
+        <v>99551769.417150825</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>65</v>
       </c>
       <c r="B167">
-        <v>18674499.999974083</v>
+        <v>104601434.32143697</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="B168">
-        <v>19837223.999972258</v>
+        <v>109818989.22286598</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
         <v>67</v>
       </c>
       <c r="B169">
-        <v>21053409.999970336</v>
+        <v>115207178.9147712</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>68</v>
       </c>
       <c r="B170">
-        <v>22324671.999968316</v>
+        <v>120768748.19048595</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>69</v>
       </c>
       <c r="B171">
-        <v>23652647.999966197</v>
+        <v>126506441.84334359</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>70</v>
       </c>
       <c r="B172">
-        <v>25038999.999963969</v>
+        <v>132423004.66667742</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>71</v>
       </c>
       <c r="B173">
-        <v>26485413.999961637</v>
+        <v>138521181.45382079</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>72</v>
       </c>
       <c r="B174">
-        <v>27993599.999959193</v>
+        <v>144803716.99810705</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>73</v>
       </c>
       <c r="B175">
-        <v>29565291.999956634</v>
+        <v>151273356.09286952</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="B176">
-        <v>31202247.999953955</v>
+        <v>157932843.53144151</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>75</v>
       </c>
       <c r="B177">
-        <v>32906249.999951158</v>
+        <v>164784924.10715637</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>76</v>
       </c>
       <c r="B178">
-        <v>34679103.999948233</v>
+        <v>171832342.61334747</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>77</v>
       </c>
       <c r="B179">
-        <v>36522639.999945179</v>
+        <v>179077843.84334809</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>78</v>
       </c>
       <c r="B180">
-        <v>38438711.99994199</v>
+        <v>186524172.59049156</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>79</v>
       </c>
       <c r="B181">
-        <v>40429197.999938667</v>
+        <v>194174073.64811128</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>80</v>
       </c>
       <c r="B182">
-        <v>42495999.999935202</v>
+        <v>202030291.80954054</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>81</v>
       </c>
       <c r="B183">
-        <v>44641043.999931589</v>
+        <v>210095571.86811265</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>82</v>
       </c>
       <c r="B184">
-        <v>46866279.999927834</v>
+        <v>218372658.61716098</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>83</v>
       </c>
       <c r="B185">
-        <v>49173681.999923922</v>
+        <v>226864296.85001886</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>84</v>
       </c>
       <c r="B186">
-        <v>51565247.999919854</v>
+        <v>235573231.36001962</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="B187">
-        <v>54042999.99991563</v>
+        <v>244502206.94049659</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>86</v>
       </c>
       <c r="B188">
-        <v>56608983.999911234</v>
+        <v>253653968.38478309</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>87</v>
       </c>
       <c r="B189">
-        <v>59265269.999906667</v>
+        <v>263031260.48621249</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>88</v>
       </c>
       <c r="B190">
-        <v>62013951.999901935</v>
+        <v>272636828.03811806</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>89</v>
       </c>
       <c r="B191">
-        <v>64857147.999897018</v>
+        <v>282473415.83383322</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>90</v>
       </c>
       <c r="B192">
-        <v>67796999.999891922</v>
+        <v>292543768.66669124</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>91</v>
       </c>
       <c r="B193">
-        <v>70835673.999886647</v>
+        <v>302850631.33002543</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>92</v>
       </c>
       <c r="B194">
-        <v>73975359.999881163</v>
+        <v>313396748.61716926</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1925,7 @@
         <v>93</v>
       </c>
       <c r="B195">
-        <v>77218271.999875501</v>
+        <v>324184865.3214559</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>94</v>
       </c>
       <c r="B196">
-        <v>80566647.99986963</v>
+        <v>335217726.23621875</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>95</v>
       </c>
       <c r="B197">
-        <v>84022749.99986355</v>
+        <v>346498076.15479118</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>96</v>
       </c>
       <c r="B198">
-        <v>87588863.999857262</v>
+        <v>358028659.87050647</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>97</v>
       </c>
       <c r="B199">
-        <v>91267299.999850765</v>
+        <v>369812222.17669797</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>98</v>
       </c>
       <c r="B200">
-        <v>95060391.999844044</v>
+        <v>381851507.86669904</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>99</v>
       </c>
       <c r="B201">
-        <v>98970497.999837101</v>
+        <v>394149261.73384297</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <v>102999999.99982993</v>
+        <v>406708228.57146311</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>101</v>
       </c>
       <c r="B203">
-        <v>107151303.99982253</v>
+        <v>419531153.17289281</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>102</v>
       </c>
       <c r="B204">
-        <v>111426839.99981487</v>
+        <v>432620780.33146536</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>103</v>
       </c>
       <c r="B205">
-        <v>115829061.99980699</v>
+        <v>445979854.84051418</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>104</v>
       </c>
       <c r="B206">
-        <v>120360447.99979885</v>
+        <v>459611121.4933725</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>105</v>
       </c>
       <c r="B207">
-        <v>125023499.99979044</v>
+        <v>473517325.08337373</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>106</v>
       </c>
       <c r="B208">
-        <v>129820743.9997818</v>
+        <v>487701210.40385115</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>107</v>
       </c>
       <c r="B209">
-        <v>134754729.99977288</v>
+        <v>502165522.24813819</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>108</v>
       </c>
       <c r="B210">
-        <v>139828031.9997637</v>
+        <v>516913005.40956801</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>109</v>
       </c>
       <c r="B211">
-        <v>145043247.99975422</v>
+        <v>531946404.68147415</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>110</v>
       </c>
       <c r="B212">
-        <v>150402999.99974447</v>
+        <v>547268464.85718977</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>111</v>
       </c>
       <c r="B213">
-        <v>155909933.99973443</v>
+        <v>562881930.7300483</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>112</v>
       </c>
       <c r="B214">
-        <v>161566719.99972412</v>
+        <v>578789547.09338307</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>113</v>
       </c>
       <c r="B215">
-        <v>167376051.99971348</v>
+        <v>594994058.74052727</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>114</v>
       </c>
       <c r="B216">
-        <v>173340647.99970254</v>
+        <v>611498210.46481442</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>115</v>
       </c>
       <c r="B217">
-        <v>179463249.99969131</v>
+        <v>628304747.05957782</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>116</v>
       </c>
       <c r="B218">
-        <v>185746623.99967977</v>
+        <v>645416413.31815076</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>117</v>
       </c>
       <c r="B219">
-        <v>192193559.99966788</v>
+        <v>662835954.03386664</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
         <v>118</v>
       </c>
       <c r="B220">
-        <v>198806871.99965569</v>
+        <v>680566114.00005865</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>119</v>
       </c>
       <c r="B221">
-        <v>205589397.99964315</v>
+        <v>698609638.01006031</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>120</v>
       </c>
       <c r="B222">
-        <v>212543999.99963027</v>
+        <v>716969270.85720479</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>121</v>
       </c>
       <c r="B223">
-        <v>219673563.99961704</v>
+        <v>735647757.33482552</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>122</v>
       </c>
       <c r="B224">
-        <v>226980999.99960348</v>
+        <v>754647842.23625576</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
         <v>123</v>
       </c>
       <c r="B225">
-        <v>234469241.99958956</v>
+        <v>773972270.35482883</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>124</v>
       </c>
       <c r="B226">
-        <v>242141247.99957526</v>
+        <v>793623786.48387825</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>125</v>
       </c>
       <c r="B227">
-        <v>249999999.99956059</v>
+        <v>813605135.4167372</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>126</v>
       </c>
       <c r="B228">
-        <v>258048503.99954557</v>
+        <v>833919061.94673896</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>127</v>
       </c>
       <c r="B229">
-        <v>266289789.99953014</v>
+        <v>854568310.86721694</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>128</v>
       </c>
       <c r="B230">
-        <v>274726911.99951434</v>
+        <v>875555626.97150457</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>129</v>
       </c>
       <c r="B231">
-        <v>283362947.99949813</v>
+        <v>896883755.052935</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>130</v>
       </c>
       <c r="B232">
-        <v>292200999.9994815</v>
+        <v>918555439.90484166</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
         <v>131</v>
       </c>
       <c r="B233">
-        <v>301244193.99946451</v>
+        <v>940573426.32055795</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>132</v>
       </c>
       <c r="B234">
-        <v>310495679.99944705</v>
+        <v>962940459.09341705</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>133</v>
       </c>
       <c r="B235">
-        <v>319958631.99942923</v>
+        <v>985659283.01675248</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>134</v>
       </c>
       <c r="B236">
-        <v>329636247.99941093</v>
+        <v>1008732642.8838974</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>135</v>
       </c>
       <c r="B237">
-        <v>339531749.99939221</v>
+        <v>1032163283.4881852</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>136</v>
       </c>
       <c r="B238">
-        <v>349648383.99937308</v>
+        <v>1055953949.6229492</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>137</v>
       </c>
       <c r="B239">
-        <v>359989419.99935347</v>
+        <v>1080107386.0815227</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="B240">
-        <v>370558151.99933338</v>
+        <v>1104626337.6572392</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>139</v>
       </c>
       <c r="B241">
-        <v>381357897.99931288</v>
+        <v>1129513549.1434319</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>140</v>
       </c>
       <c r="B242">
-        <v>392391999.99929184</v>
+        <v>1154771765.3334341</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>141</v>
       </c>
       <c r="B243">
-        <v>403663823.99927038</v>
+        <v>1180403731.0205793</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>142</v>
       </c>
       <c r="B244">
-        <v>415176759.99924845</v>
+        <v>1206412190.9982007</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2325,7 @@
         <v>143</v>
       </c>
       <c r="B245">
-        <v>426934221.99922597</v>
+        <v>1232799890.0596316</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>144</v>
       </c>
       <c r="B246">
-        <v>438939647.99920303</v>
+        <v>1259569572.9982054</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>145</v>
       </c>
       <c r="B247">
-        <v>451196499.99917954</v>
+        <v>1286723984.6072555</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>146</v>
       </c>
       <c r="B248">
-        <v>463708263.99915558</v>
+        <v>1314265869.6801152</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>147</v>
       </c>
       <c r="B249">
-        <v>476478449.99913108</v>
+        <v>1342197973.0101175</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>148</v>
       </c>
       <c r="B250">
-        <v>489510591.99910605</v>
+        <v>1370523039.3905964</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>149</v>
       </c>
       <c r="B251">
-        <v>502808247.99908048</v>
+        <v>1399243813.6148846</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>150</v>
       </c>
       <c r="B252">
-        <v>516374999.99905437</v>
+        <v>1428363040.4763157</v>
       </c>
     </row>
   </sheetData>
